--- a/analysis(AMOS).xlsx
+++ b/analysis(AMOS).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share\Dropbox\강의준비\2025\2025.07.특강\2025.07.17.AMOS\교안\교재템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C516A4-5B8B-45C9-A263-5D3992B85436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC09A35-562F-408D-BBDE-2E1098220F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="90" windowWidth="17130" windowHeight="15375" xr2:uid="{5E2210A8-0D1A-4529-8A55-AC1DE7788194}"/>
+    <workbookView xWindow="5865" yWindow="45" windowWidth="17130" windowHeight="15375" activeTab="1" xr2:uid="{5E2210A8-0D1A-4529-8A55-AC1DE7788194}"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="7" r:id="rId1"/>
@@ -1131,6 +1131,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1139,24 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1506,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FA05A4-337D-4382-8DA9-74A91BF20A06}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1803,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0DCDD5-64AA-4481-B6F2-B598B9DAE89D}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1832,9 +1832,9 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,11 +1870,11 @@
       <c r="E3" s="16">
         <v>0.82</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="47">
         <f>SUM(E3:E5)</f>
         <v>2.4260000000000002</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="47">
         <f>POWER(F3,2)</f>
         <v>5.8854760000000006</v>
       </c>
@@ -1886,11 +1886,11 @@
         <f>1-H3</f>
         <v>0.32760000000000011</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="47">
         <f>SUM(I3:I5)</f>
         <v>1.0370140000000001</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="50">
         <f>G3/(G3+J3)</f>
         <v>0.85019638887163429</v>
       </c>
@@ -1908,8 +1908,8 @@
       <c r="E4" s="16">
         <v>0.82499999999999996</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H14" si="0">POWER(E4,2)</f>
         <v>0.68062499999999992</v>
@@ -1918,8 +1918,8 @@
         <f t="shared" ref="I4:I14" si="1">1-H4</f>
         <v>0.31937500000000008</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
@@ -1934,8 +1934,8 @@
       <c r="E5" s="16">
         <v>0.78100000000000003</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0.60996100000000009</v>
@@ -1944,8 +1944,8 @@
         <f t="shared" si="1"/>
         <v>0.39003899999999991</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
@@ -1960,11 +1960,11 @@
       <c r="E6" s="16">
         <v>0.86</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <f>SUM(E6:E8)</f>
         <v>2.5760000000000001</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="47">
         <f>POWER(F6,2)</f>
         <v>6.6357760000000008</v>
       </c>
@@ -1976,11 +1976,11 @@
         <f t="shared" si="1"/>
         <v>0.26040000000000008</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="47">
         <f>SUM(I6:I8)</f>
         <v>0.78454400000000013</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="50">
         <f>G6/(G6+J6)</f>
         <v>0.89427086702460268</v>
       </c>
@@ -1998,8 +1998,8 @@
       <c r="E7" s="16">
         <v>0.9</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>0.81</v>
@@ -2008,8 +2008,8 @@
         <f t="shared" si="1"/>
         <v>0.18999999999999995</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
@@ -2024,8 +2024,8 @@
       <c r="E8" s="16">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>0.66585599999999989</v>
@@ -2034,8 +2034,8 @@
         <f t="shared" si="1"/>
         <v>0.33414400000000011</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -2050,11 +2050,11 @@
       <c r="E9" s="16">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="47">
         <f>SUM(E9:E11)</f>
         <v>2.4959999999999996</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="47">
         <f>POWER(F9,2)</f>
         <v>6.2300159999999973</v>
       </c>
@@ -2066,11 +2066,11 @@
         <f t="shared" si="1"/>
         <v>0.28766400000000003</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="47">
         <f>SUM(I9:I11)</f>
         <v>0.92295000000000016</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="50">
         <f>G9/(G9+J9)</f>
         <v>0.87096960897060038</v>
       </c>
@@ -2088,8 +2088,8 @@
       <c r="E10" s="16">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>0.69722499999999998</v>
@@ -2098,8 +2098,8 @@
         <f t="shared" si="1"/>
         <v>0.30277500000000002</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="54"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -2114,8 +2114,8 @@
       <c r="E11" s="16">
         <v>0.81699999999999995</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>0.66748899999999989</v>
@@ -2124,8 +2124,8 @@
         <f t="shared" si="1"/>
         <v>0.33251100000000011</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
@@ -2140,11 +2140,11 @@
       <c r="E12" s="16">
         <v>0.90100000000000002</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="47">
         <f>SUM(E12:E14)</f>
         <v>2.6270000000000002</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="47">
         <f>POWER(F12,2)</f>
         <v>6.901129000000001</v>
       </c>
@@ -2156,11 +2156,11 @@
         <f t="shared" si="1"/>
         <v>0.18819900000000001</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="47">
         <f>SUM(I12:I14)</f>
         <v>0.69849900000000009</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="50">
         <f>G12/(G12+J12)</f>
         <v>0.90808773797875375</v>
       </c>
@@ -2178,8 +2178,8 @@
       <c r="E13" s="16">
         <v>0.872</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>0.76038399999999995</v>
@@ -2188,8 +2188,8 @@
         <f t="shared" si="1"/>
         <v>0.23961600000000005</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
@@ -2204,8 +2204,8 @@
       <c r="E14" s="16">
         <v>0.85399999999999998</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>0.72931599999999996</v>
@@ -2214,11 +2214,16 @@
         <f t="shared" si="1"/>
         <v>0.27068400000000004</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="55"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="J3:J5"/>
@@ -2231,11 +2236,6 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,9 +2278,9 @@
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="2:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2321,15 +2321,15 @@
         <f>1-F3</f>
         <v>0.32760000000000011</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="47">
         <f>SUM(F3:F5)</f>
         <v>1.9629859999999999</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="47">
         <f>SUM(G3:G5)</f>
         <v>1.0370140000000001</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="50">
         <f>H3/(H3+I3)</f>
         <v>0.65432866666666667</v>
       </c>
@@ -2355,9 +2355,9 @@
         <f t="shared" ref="G4:G14" si="1">1-F4</f>
         <v>0.31937500000000008</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="54"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
@@ -2380,9 +2380,9 @@
         <f t="shared" si="1"/>
         <v>0.39003899999999991</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="55"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
@@ -2405,15 +2405,15 @@
         <f t="shared" si="1"/>
         <v>0.26040000000000008</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="47">
         <f>SUM(F6:F8)</f>
         <v>2.2154559999999996</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="47">
         <f>SUM(G6:G8)</f>
         <v>0.78454400000000013</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="50">
         <f>H6/(H6+I6)</f>
         <v>0.73848533333333322</v>
       </c>
@@ -2439,9 +2439,9 @@
         <f t="shared" si="1"/>
         <v>0.18999999999999995</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
@@ -2464,9 +2464,9 @@
         <f t="shared" si="1"/>
         <v>0.33414400000000011</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="55"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -2489,15 +2489,15 @@
         <f t="shared" si="1"/>
         <v>0.28766400000000003</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="47">
         <f>SUM(F9:F11)</f>
         <v>2.0770499999999998</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="47">
         <f>SUM(G9:G11)</f>
         <v>0.92295000000000016</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="50">
         <f>H9/(H9+I9)</f>
         <v>0.69234999999999991</v>
       </c>
@@ -2523,9 +2523,9 @@
         <f t="shared" si="1"/>
         <v>0.30277500000000002</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -2548,9 +2548,9 @@
         <f t="shared" si="1"/>
         <v>0.33251100000000011</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="55"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
@@ -2573,15 +2573,15 @@
         <f t="shared" si="1"/>
         <v>0.18819900000000001</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="47">
         <f>SUM(F12:F14)</f>
         <v>2.301501</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="47">
         <f>SUM(G12:G14)</f>
         <v>0.69849900000000009</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="50">
         <f>H12/(H12+I12)</f>
         <v>0.76716700000000004</v>
       </c>
@@ -2607,9 +2607,9 @@
         <f t="shared" si="1"/>
         <v>0.23961600000000005</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
@@ -2632,18 +2632,12 @@
         <f t="shared" si="1"/>
         <v>0.27068400000000004</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="55"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:J5"/>
@@ -2651,6 +2645,12 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2736,11 +2736,11 @@
         <v>42</v>
       </c>
       <c r="C5" s="16">
+        <f>POWER(E10,2)</f>
+        <v>0.60217600000000004</v>
+      </c>
+      <c r="D5" s="16">
         <f>POWER(E12,2)</f>
-        <v>0.60217600000000004</v>
-      </c>
-      <c r="D5" s="16">
-        <f>POWER(E10,2)</f>
         <v>0.42250000000000004</v>
       </c>
       <c r="E5" s="23">
@@ -2756,15 +2756,15 @@
         <v>43</v>
       </c>
       <c r="C6" s="16">
+        <f>POWER(E11,2)</f>
+        <v>0.57608100000000007</v>
+      </c>
+      <c r="D6" s="16">
         <f>POWER(E13,2)</f>
-        <v>0.57608100000000007</v>
-      </c>
-      <c r="D6" s="16">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="E6" s="16">
         <f>POWER(E14,2)</f>
-        <v>0.38440000000000002</v>
-      </c>
-      <c r="E6" s="16">
-        <f>POWER(E11,2)</f>
         <v>0.68227599999999988</v>
       </c>
       <c r="F6" s="23">
@@ -2804,9 +2804,9 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>52</v>
@@ -2815,14 +2815,15 @@
         <v>42</v>
       </c>
       <c r="E10" s="16">
-        <v>-0.65</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>52</v>
@@ -2831,14 +2832,14 @@
         <v>43</v>
       </c>
       <c r="E11" s="16">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>52</v>
@@ -2847,15 +2848,14 @@
         <v>42</v>
       </c>
       <c r="E12" s="16">
-        <v>0.77600000000000002</v>
+        <v>-0.65</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>52</v>
@@ -2864,14 +2864,14 @@
         <v>43</v>
       </c>
       <c r="E13" s="16">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
+        <v>-0.62</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>52</v>
@@ -2880,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="16">
-        <v>-0.62</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
